--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2282.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2282.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137983968541078</v>
+        <v>1.196023225784302</v>
       </c>
       <c r="B1">
-        <v>2.931898700292443</v>
+        <v>2.481930017471313</v>
       </c>
       <c r="C1">
-        <v>4.23666873745139</v>
+        <v>4.074303150177002</v>
       </c>
       <c r="D1">
-        <v>3.321867538571347</v>
+        <v>2.103570938110352</v>
       </c>
       <c r="E1">
-        <v>1.221301679077827</v>
+        <v>1.1844722032547</v>
       </c>
     </row>
   </sheetData>
